--- a/gropin/schema/metadataschema335.xlsx
+++ b/gropin/schema/metadataschema335.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Salmonella spp. in/on Tryptic Soy Broth (gropin ID: 335 )</t>
+          <t>Gropin secondary growth model for Salmonella spp. in/on Tryptic Soy Broth (gropin ID: 335 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(9.85985,29.8201798201798,length.out=21)</t>
+          <t>seq(9.85985,29.8201798201798,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(5.63563,6.76323676323676,length.out=21)</t>
+          <t>seq(5.63563,6.76323676323676,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.7007,4.55544455544456,length.out=21)</t>
+          <t>seq(0.7007,4.55544455544456,length.out=10)</t>
         </is>
       </c>
     </row>
